--- a/data/2025-work/cra-data/Organization_Type.xlsx
+++ b/data/2025-work/cra-data/Organization_Type.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="315">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t xml:space="preserve">NASO OSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhenAdded</t>
   </si>
   <si>
     <t xml:space="preserve">Educational</t>
@@ -1110,15 +1113,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.13"/>
@@ -6088,6 +6091,8 @@
         <v>10</v>
       </c>
     </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:F248"/>
   <dataValidations count="1">
@@ -6112,23 +6117,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E121" activeCellId="0" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="105.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.06"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6147,8 +6152,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -6167,8 +6175,11 @@
       <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -6187,8 +6198,11 @@
       <c r="F3" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -6207,8 +6221,11 @@
       <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
@@ -6227,8 +6244,11 @@
       <c r="F5" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
@@ -6247,8 +6267,11 @@
       <c r="F6" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
@@ -6267,8 +6290,11 @@
       <c r="F7" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
@@ -6287,8 +6313,11 @@
       <c r="F8" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>6</v>
       </c>
@@ -6307,8 +6336,11 @@
       <c r="F9" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>6</v>
       </c>
@@ -6327,8 +6359,11 @@
       <c r="F10" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>6</v>
       </c>
@@ -6347,8 +6382,11 @@
       <c r="F11" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>6</v>
       </c>
@@ -6367,8 +6405,11 @@
       <c r="F12" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>6</v>
       </c>
@@ -6387,8 +6428,11 @@
       <c r="F13" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>6</v>
       </c>
@@ -6407,8 +6451,11 @@
       <c r="F14" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>98</v>
       </c>
@@ -6427,8 +6474,11 @@
       <c r="F15" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>98</v>
       </c>
@@ -6447,8 +6497,11 @@
       <c r="F16" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>98</v>
       </c>
@@ -6467,8 +6520,11 @@
       <c r="F17" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>98</v>
       </c>
@@ -6487,8 +6543,11 @@
       <c r="F18" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>98</v>
       </c>
@@ -6507,8 +6566,11 @@
       <c r="F19" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>98</v>
       </c>
@@ -6527,8 +6589,11 @@
       <c r="F20" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>98</v>
       </c>
@@ -6547,8 +6612,11 @@
       <c r="F21" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>98</v>
       </c>
@@ -6567,8 +6635,11 @@
       <c r="F22" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>98</v>
       </c>
@@ -6587,8 +6658,11 @@
       <c r="F23" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>98</v>
       </c>
@@ -6607,8 +6681,11 @@
       <c r="F24" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>98</v>
       </c>
@@ -6627,8 +6704,11 @@
       <c r="F25" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>98</v>
       </c>
@@ -6647,8 +6727,11 @@
       <c r="F26" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>98</v>
       </c>
@@ -6667,8 +6750,11 @@
       <c r="F27" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>98</v>
       </c>
@@ -6687,8 +6773,11 @@
       <c r="F28" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>98</v>
       </c>
@@ -6707,8 +6796,11 @@
       <c r="F29" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>98</v>
       </c>
@@ -6727,8 +6819,11 @@
       <c r="F30" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>98</v>
       </c>
@@ -6747,8 +6842,11 @@
       <c r="F31" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>98</v>
       </c>
@@ -6767,8 +6865,11 @@
       <c r="F32" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>98</v>
       </c>
@@ -6787,8 +6888,11 @@
       <c r="F33" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>98</v>
       </c>
@@ -6807,8 +6911,11 @@
       <c r="F34" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>98</v>
       </c>
@@ -6827,8 +6934,11 @@
       <c r="F35" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>98</v>
       </c>
@@ -6847,8 +6957,11 @@
       <c r="F36" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>98</v>
       </c>
@@ -6867,8 +6980,11 @@
       <c r="F37" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>98</v>
       </c>
@@ -6887,8 +7003,11 @@
       <c r="F38" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>98</v>
       </c>
@@ -6907,8 +7026,11 @@
       <c r="F39" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>98</v>
       </c>
@@ -6927,8 +7049,11 @@
       <c r="F40" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>98</v>
       </c>
@@ -6947,8 +7072,11 @@
       <c r="F41" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>98</v>
       </c>
@@ -6967,8 +7095,11 @@
       <c r="F42" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>98</v>
       </c>
@@ -6987,8 +7118,11 @@
       <c r="F43" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>98</v>
       </c>
@@ -7007,8 +7141,11 @@
       <c r="F44" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>98</v>
       </c>
@@ -7027,8 +7164,11 @@
       <c r="F45" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>98</v>
       </c>
@@ -7047,8 +7187,11 @@
       <c r="F46" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>98</v>
       </c>
@@ -7067,8 +7210,11 @@
       <c r="F47" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>98</v>
       </c>
@@ -7087,8 +7233,11 @@
       <c r="F48" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>98</v>
       </c>
@@ -7107,8 +7256,11 @@
       <c r="F49" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>98</v>
       </c>
@@ -7127,8 +7279,11 @@
       <c r="F50" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>98</v>
       </c>
@@ -7147,8 +7302,11 @@
       <c r="F51" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>98</v>
       </c>
@@ -7167,8 +7325,11 @@
       <c r="F52" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>98</v>
       </c>
@@ -7187,8 +7348,11 @@
       <c r="F53" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>98</v>
       </c>
@@ -7207,8 +7371,11 @@
       <c r="F54" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>98</v>
       </c>
@@ -7227,8 +7394,11 @@
       <c r="F55" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>98</v>
       </c>
@@ -7247,8 +7417,11 @@
       <c r="F56" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>98</v>
       </c>
@@ -7267,8 +7440,11 @@
       <c r="F57" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>98</v>
       </c>
@@ -7287,8 +7463,11 @@
       <c r="F58" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>98</v>
       </c>
@@ -7307,8 +7486,11 @@
       <c r="F59" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>98</v>
       </c>
@@ -7327,8 +7509,11 @@
       <c r="F60" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>98</v>
       </c>
@@ -7347,8 +7532,11 @@
       <c r="F61" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>98</v>
       </c>
@@ -7367,8 +7555,11 @@
       <c r="F62" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>98</v>
       </c>
@@ -7387,8 +7578,11 @@
       <c r="F63" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>98</v>
       </c>
@@ -7407,8 +7601,11 @@
       <c r="F64" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>98</v>
       </c>
@@ -7427,8 +7624,11 @@
       <c r="F65" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>98</v>
       </c>
@@ -7447,8 +7647,11 @@
       <c r="F66" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>98</v>
       </c>
@@ -7467,8 +7670,11 @@
       <c r="F67" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>98</v>
       </c>
@@ -7487,8 +7693,11 @@
       <c r="F68" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>98</v>
       </c>
@@ -7507,8 +7716,11 @@
       <c r="F69" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>98</v>
       </c>
@@ -7527,8 +7739,11 @@
       <c r="F70" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>98</v>
       </c>
@@ -7547,8 +7762,11 @@
       <c r="F71" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G71" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>98</v>
       </c>
@@ -7567,8 +7785,11 @@
       <c r="F72" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>98</v>
       </c>
@@ -7587,8 +7808,11 @@
       <c r="F73" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>170</v>
       </c>
@@ -7607,8 +7831,11 @@
       <c r="F74" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>170</v>
       </c>
@@ -7627,8 +7854,11 @@
       <c r="F75" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>170</v>
       </c>
@@ -7647,8 +7877,11 @@
       <c r="F76" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>170</v>
       </c>
@@ -7667,8 +7900,11 @@
       <c r="F77" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>170</v>
       </c>
@@ -7687,8 +7923,11 @@
       <c r="F78" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>170</v>
       </c>
@@ -7707,8 +7946,11 @@
       <c r="F79" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>170</v>
       </c>
@@ -7727,8 +7969,11 @@
       <c r="F80" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>170</v>
       </c>
@@ -7747,8 +7992,11 @@
       <c r="F81" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G81" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>170</v>
       </c>
@@ -7767,8 +8015,11 @@
       <c r="F82" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>170</v>
       </c>
@@ -7787,8 +8038,11 @@
       <c r="F83" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>170</v>
       </c>
@@ -7807,8 +8061,11 @@
       <c r="F84" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G84" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>170</v>
       </c>
@@ -7827,8 +8084,11 @@
       <c r="F85" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G85" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>170</v>
       </c>
@@ -7847,8 +8107,11 @@
       <c r="F86" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G86" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>170</v>
       </c>
@@ -7867,8 +8130,11 @@
       <c r="F87" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G87" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>170</v>
       </c>
@@ -7887,8 +8153,11 @@
       <c r="F88" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G88" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>170</v>
       </c>
@@ -7907,8 +8176,11 @@
       <c r="F89" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G89" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>170</v>
       </c>
@@ -7927,8 +8199,11 @@
       <c r="F90" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G90" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>170</v>
       </c>
@@ -7947,8 +8222,11 @@
       <c r="F91" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G91" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>170</v>
       </c>
@@ -7967,8 +8245,11 @@
       <c r="F92" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G92" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>170</v>
       </c>
@@ -7987,8 +8268,11 @@
       <c r="F93" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G93" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>170</v>
       </c>
@@ -8007,8 +8291,11 @@
       <c r="F94" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G94" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>170</v>
       </c>
@@ -8027,8 +8314,11 @@
       <c r="F95" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G95" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>170</v>
       </c>
@@ -8047,8 +8337,11 @@
       <c r="F96" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G96" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>170</v>
       </c>
@@ -8067,8 +8360,11 @@
       <c r="F97" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G97" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>170</v>
       </c>
@@ -8087,8 +8383,11 @@
       <c r="F98" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G98" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>170</v>
       </c>
@@ -8107,8 +8406,11 @@
       <c r="F99" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G99" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>170</v>
       </c>
@@ -8127,8 +8429,11 @@
       <c r="F100" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G100" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>170</v>
       </c>
@@ -8147,8 +8452,11 @@
       <c r="F101" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G101" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>170</v>
       </c>
@@ -8167,8 +8475,11 @@
       <c r="F102" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G102" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>170</v>
       </c>
@@ -8187,8 +8498,11 @@
       <c r="F103" s="0" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G103" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>170</v>
       </c>
@@ -8207,8 +8521,11 @@
       <c r="F104" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G104" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>170</v>
       </c>
@@ -8227,8 +8544,11 @@
       <c r="F105" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G105" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>170</v>
       </c>
@@ -8247,8 +8567,11 @@
       <c r="F106" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G106" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>170</v>
       </c>
@@ -8267,8 +8590,11 @@
       <c r="F107" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G107" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>170</v>
       </c>
@@ -8287,8 +8613,11 @@
       <c r="F108" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G108" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>170</v>
       </c>
@@ -8307,8 +8636,11 @@
       <c r="F109" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G109" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>170</v>
       </c>
@@ -8327,8 +8659,11 @@
       <c r="F110" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G110" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>170</v>
       </c>
@@ -8346,6 +8681,89 @@
       </c>
       <c r="F111" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -8366,11 +8784,11 @@
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.06"/>
   </cols>
@@ -8402,7 +8820,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
